--- a/Dolar_Today.xlsx
+++ b/Dolar_Today.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\DS_Projects\Exchange_Rate_Venezuela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\DS_Projects\Exchange_Rate_Venezuela\exchange_rate_Venezuela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F9F8C-6B58-47A7-AAC6-D622D359924C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22553F7B-7224-49EC-9DE1-859E55D1A05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3246">
   <si>
     <t>Fecha</t>
   </si>
@@ -9730,6 +9730,45 @@
   </si>
   <si>
     <t>10-10-2019</t>
+  </si>
+  <si>
+    <t>10-11-2019</t>
+  </si>
+  <si>
+    <t>10-12-2019</t>
+  </si>
+  <si>
+    <t>10-13-2019</t>
+  </si>
+  <si>
+    <t>10-14-2019</t>
+  </si>
+  <si>
+    <t>10-15-2019</t>
+  </si>
+  <si>
+    <t>10-16-2019</t>
+  </si>
+  <si>
+    <t>10-17-2019</t>
+  </si>
+  <si>
+    <t>10-18-2019</t>
+  </si>
+  <si>
+    <t>10-19-2019</t>
+  </si>
+  <si>
+    <t>10-20-2019</t>
+  </si>
+  <si>
+    <t>10-21-2019</t>
+  </si>
+  <si>
+    <t>10-22-2019</t>
+  </si>
+  <si>
+    <t>10-23-2019</t>
   </si>
 </sst>
 </file>
@@ -9790,7 +9829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9800,6 +9839,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -10115,10 +10155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3232"/>
+  <dimension ref="A1:B3245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3212" workbookViewId="0">
-      <selection activeCell="A3226" sqref="A3226"/>
+    <sheetView tabSelected="1" topLeftCell="A3227" workbookViewId="0">
+      <selection activeCell="B3234" sqref="B3234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35983,6 +36023,110 @@
         <v>1986106000.0000002</v>
       </c>
     </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3233" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B3233" s="4">
+        <v>1993204000</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3234" s="2" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B3234" s="4">
+        <v>1993204000</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3235" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B3235" s="4">
+        <v>1993204000</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3236" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B3236" s="4">
+        <v>1963541000</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3237" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B3237" s="4">
+        <v>1950221000</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3238" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B3238" s="4">
+        <v>1919906000.0000002</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3239" s="5" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B3239" s="4">
+        <v>1919906000.0000002</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3240" s="5" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B3240" s="4">
+        <v>1903249000.0000002</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3241" s="5" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B3241" s="4">
+        <v>1903249000.0000002</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3242" s="5" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B3242" s="4">
+        <v>1903249000.0000002</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3243" s="5" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B3243" s="4">
+        <v>1870402000</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3244" s="5" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B3244" s="4">
+        <v>1850264000</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3245" s="5" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B3245" s="4">
+        <v>1883020000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dolar_Today.xlsx
+++ b/Dolar_Today.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\DS_Projects\Exchange_Rate_Venezuela\exchange_rate_Venezuela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22553F7B-7224-49EC-9DE1-859E55D1A05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0019A2C8-B5C6-42D2-80C2-E026A5809B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="3317">
   <si>
     <t>Fecha</t>
   </si>
@@ -9769,6 +9771,219 @@
   </si>
   <si>
     <t>10-23-2019</t>
+  </si>
+  <si>
+    <t>10-24-2019</t>
+  </si>
+  <si>
+    <t>10-25-2019</t>
+  </si>
+  <si>
+    <t>10-26-2019</t>
+  </si>
+  <si>
+    <t>10-27-2019</t>
+  </si>
+  <si>
+    <t>10-28-2019</t>
+  </si>
+  <si>
+    <t>10-29-2019</t>
+  </si>
+  <si>
+    <t>10-30-2019</t>
+  </si>
+  <si>
+    <t>10-31-2019</t>
+  </si>
+  <si>
+    <t>11-1-2019</t>
+  </si>
+  <si>
+    <t>11-2-2019</t>
+  </si>
+  <si>
+    <t>11-3-2019</t>
+  </si>
+  <si>
+    <t>11-4-2019</t>
+  </si>
+  <si>
+    <t>11-5-2019</t>
+  </si>
+  <si>
+    <t>11-6-2019</t>
+  </si>
+  <si>
+    <t>11-8-2019</t>
+  </si>
+  <si>
+    <t>11-9-2019</t>
+  </si>
+  <si>
+    <t>11-10-2019</t>
+  </si>
+  <si>
+    <t>11-11-2019</t>
+  </si>
+  <si>
+    <t>11-12-2019</t>
+  </si>
+  <si>
+    <t>11-13-2019</t>
+  </si>
+  <si>
+    <t>11-14-2019</t>
+  </si>
+  <si>
+    <t>11-15-2019</t>
+  </si>
+  <si>
+    <t>11-16-2019</t>
+  </si>
+  <si>
+    <t>11-17-2019</t>
+  </si>
+  <si>
+    <t>11-18-2019</t>
+  </si>
+  <si>
+    <t>11-19-2019</t>
+  </si>
+  <si>
+    <t>11-20-2019</t>
+  </si>
+  <si>
+    <t>11-21-2019</t>
+  </si>
+  <si>
+    <t>11-22-2019</t>
+  </si>
+  <si>
+    <t>11-23-2019</t>
+  </si>
+  <si>
+    <t>11-24-2019</t>
+  </si>
+  <si>
+    <t>11-25-2019</t>
+  </si>
+  <si>
+    <t>11-26-2019</t>
+  </si>
+  <si>
+    <t>11-27-2019</t>
+  </si>
+  <si>
+    <t>11-28-2019</t>
+  </si>
+  <si>
+    <t>11-29-2019</t>
+  </si>
+  <si>
+    <t>11-30-2019</t>
+  </si>
+  <si>
+    <t>12-1-2019</t>
+  </si>
+  <si>
+    <t>12-2-2019</t>
+  </si>
+  <si>
+    <t>12-3-2019</t>
+  </si>
+  <si>
+    <t>12-4-2019</t>
+  </si>
+  <si>
+    <t>12-5-2019</t>
+  </si>
+  <si>
+    <t>12-6-2019</t>
+  </si>
+  <si>
+    <t>12-7-2019</t>
+  </si>
+  <si>
+    <t>12-8-2019</t>
+  </si>
+  <si>
+    <t>12-9-2019</t>
+  </si>
+  <si>
+    <t>12-10-2019</t>
+  </si>
+  <si>
+    <t>12-11-2019</t>
+  </si>
+  <si>
+    <t>12-12-2019</t>
+  </si>
+  <si>
+    <t>12-13-2019</t>
+  </si>
+  <si>
+    <t>12-14-2019</t>
+  </si>
+  <si>
+    <t>12-15-2019</t>
+  </si>
+  <si>
+    <t>12-16-2019</t>
+  </si>
+  <si>
+    <t>12-17-2019</t>
+  </si>
+  <si>
+    <t>12-18-2019</t>
+  </si>
+  <si>
+    <t>12-19-2019</t>
+  </si>
+  <si>
+    <t>12-20-2019</t>
+  </si>
+  <si>
+    <t>12-21-2019</t>
+  </si>
+  <si>
+    <t>12-22-2019</t>
+  </si>
+  <si>
+    <t>12-23-2019</t>
+  </si>
+  <si>
+    <t>12-24-2019</t>
+  </si>
+  <si>
+    <t>12-25-2019</t>
+  </si>
+  <si>
+    <t>12-26-2019</t>
+  </si>
+  <si>
+    <t>12-27-2019</t>
+  </si>
+  <si>
+    <t>12-28-2019</t>
+  </si>
+  <si>
+    <t>12-29-2019</t>
+  </si>
+  <si>
+    <t>12-30-2019</t>
+  </si>
+  <si>
+    <t>12-31-2019</t>
+  </si>
+  <si>
+    <t>1-1-2020</t>
+  </si>
+  <si>
+    <t>1-2-2020</t>
+  </si>
+  <si>
+    <t>1-3-2020</t>
   </si>
 </sst>
 </file>
@@ -9825,11 +10040,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9840,10 +10056,19 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10155,10 +10380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3245"/>
+  <dimension ref="A1:D3316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3227" workbookViewId="0">
-      <selection activeCell="B3234" sqref="B3234"/>
+    <sheetView tabSelected="1" topLeftCell="A3297" workbookViewId="0">
+      <selection activeCell="D3314" sqref="D3314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36127,6 +36352,575 @@
         <v>1883020000</v>
       </c>
     </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3246" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B3246" s="4">
+        <v>2004333000.0000002</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3247" s="6" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B3247" s="4">
+        <v>2190781000</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3248" s="6" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B3248" s="4">
+        <v>2190781000</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3249" s="6" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B3249" s="4">
+        <v>2190781000</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3250" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B3250" s="4">
+        <v>2536928000</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3251" s="6" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B3251" s="4">
+        <v>2590337000</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3252" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B3252" s="4">
+        <v>2638802000</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3253" s="6" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B3253" s="4">
+        <v>2475432000</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3254" s="7" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B3254" s="4">
+        <v>2100372000</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3255" s="7" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B3255" s="4">
+        <v>2100372000</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3256" s="7" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B3256" s="4">
+        <v>2100372000</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3257" s="7" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B3257" s="4">
+        <v>2381927000</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3258" s="7" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B3258" s="4">
+        <v>2409403000</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3259" s="7" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B3259" s="4">
+        <v>2396302000</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3260" s="7" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B3260" s="4">
+        <v>2754205000</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3261" s="7" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B3261" s="4">
+        <v>2754205000</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3262" s="7" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B3262" s="4">
+        <v>2890674000</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3263" s="8" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B3263" s="4">
+        <v>2903222000</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3264" s="8" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B3264" s="4">
+        <v>3186392000</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3265" s="8" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B3265" s="4">
+        <v>3160373000</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3266" s="8" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B3266" s="4">
+        <v>2983943000</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3267" s="8" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B3267" s="4">
+        <v>2983943000</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3268" s="8" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B3268" s="4">
+        <v>2983943000</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3269" s="8" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B3269" s="4">
+        <v>2979431000</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3270" s="8" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B3270" s="4">
+        <v>3181193000</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3271" s="8" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B3271" s="4">
+        <v>3307598000.0000005</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3272" s="8" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B3272" s="4">
+        <v>3359283000</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3273" s="9" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B3273" s="4">
+        <v>3375292000</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3274" s="9" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B3274" s="4">
+        <v>3375292000</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3275" s="9" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B3275" s="4">
+        <v>3375292000</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3276" s="9" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B3276" s="4">
+        <v>3641901999.9999995</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3277" s="9" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B3277" s="4">
+        <v>3804101999.9999995</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3278" s="9" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B3278" s="4">
+        <v>4001204000</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3279" s="9" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B3279" s="4">
+        <v>4172103000</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3280" s="9" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B3280" s="4">
+        <v>4159400000</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3281" s="9" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B3281" s="4">
+        <v>4159400000</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3282" s="9" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B3282" s="4">
+        <v>4159400000</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3283" s="9" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B3283" s="4">
+        <v>3984041000.0000005</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3284" s="9" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B3284" s="4">
+        <v>4001862999.9999995</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3285" s="9" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B3285" s="4">
+        <v>4303292000</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3286" s="9" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B3286" s="4">
+        <v>4452102000</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3287" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B3287" s="4">
+        <v>4418742000</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3288" s="9" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B3288" s="4">
+        <v>4418742000</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3289" s="9" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B3289" s="4">
+        <v>4418742000</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3290" s="9" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B3290" s="4">
+        <v>4477287000</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3291" s="10" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B3291" s="4">
+        <v>4685032000</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3292" s="10" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B3292" s="4">
+        <v>4710904000</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3293" s="10" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B3293" s="4">
+        <v>4683819000</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3294" s="10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B3294" s="4">
+        <v>4710412000</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3295" s="10" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B3295" s="4">
+        <v>4710412000</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3296" s="10" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B3296" s="4">
+        <v>4710412000</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3297" s="10" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B3297" s="4">
+        <v>4801101000</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3298" s="11" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B3298" s="4">
+        <v>4774023000</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3299" s="11" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B3299" s="4">
+        <v>4851943000</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3300" s="11" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B3300" s="4">
+        <v>4732502000</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3301" s="11" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B3301" s="4">
+        <v>4760203000</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3302" s="11" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B3302" s="4">
+        <v>4760203000</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3303" s="11" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B3303" s="4">
+        <v>4760203000</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3304" s="11" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B3304" s="4">
+        <v>4611249000</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3305" s="11" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B3305" s="4">
+        <v>4611249000</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3306" s="11" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B3306" s="4">
+        <v>4611249000</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3307" s="11" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B3307" s="4">
+        <v>4559227000</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3308" s="11" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B3308" s="4">
+        <v>4750203000</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3309" s="11" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B3309" s="4">
+        <v>4750203000</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3310" s="11" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B3310" s="4">
+        <v>4750203000</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3311" s="12" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B3311" s="4">
+        <v>5183253000</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3312" s="12" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B3312" s="4">
+        <v>5470282000</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3313" s="12" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B3313" s="4">
+        <v>5470282000</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3314" s="12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B3314" s="4">
+        <v>5730194000</v>
+      </c>
+      <c r="D3314" s="13"/>
+    </row>
+    <row r="3315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3315" s="12" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B3315" s="4">
+        <v>6748217000</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3316" s="12" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B3316" s="4">
+        <v>7649309000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
